--- a/Stage/Modèle de Carnet de bord.xlsx
+++ b/Stage/Modèle de Carnet de bord.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\Documents\iut2\Stage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141282D-5840-4E2A-9890-FCF767EA8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Carnet_de_bord" sheetId="1" r:id="rId1"/>
-    <sheet name="Paramètres" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Carnet_de_bord" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Paramètres" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,125 +21,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
-  <si>
-    <t>Date de l'offre</t>
-  </si>
-  <si>
-    <t>Etape en cours
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">Date de l'offre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etape en cours
 (liste déroulante)</t>
   </si>
   <si>
-    <t>Origine de l’offre
+    <t xml:space="preserve">Origine de l’offre
 (liste déroulante)</t>
   </si>
   <si>
-    <t>Entreprise
+    <t xml:space="preserve">Entreprise
 (nom, localisation)</t>
   </si>
   <si>
-    <t>Contact entreprise
+    <t xml:space="preserve">Contact entreprise
 (nom prénom, fonction)</t>
   </si>
   <si>
-    <t>Intitulé du stage</t>
-  </si>
-  <si>
-    <t>Analyse entreprise
+    <t xml:space="preserve">Intitulé du stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse entreprise
 (mots clés, valeurs, culture, projet d'entreprise)</t>
   </si>
   <si>
-    <t>1 - Offre identifiée</t>
-  </si>
-  <si>
-    <t>Réseau</t>
-  </si>
-  <si>
-    <t>Entreprise, LANNION</t>
-  </si>
-  <si>
-    <t>TOTORO Monvoisin, esprit de la forêt</t>
-  </si>
-  <si>
-    <t>(Exemple d'offre, à supprimer de votre carnet de bord). Développement du portail de la forêt de Lannion. Technos : wood &amp; nails, framework opensource AnimalsLivesMatter</t>
-  </si>
-  <si>
-    <t>Protection de l'environnement, spécialisation dans la magie et l'agriculture, vise la place de leader dans le marché de la transformation végétale</t>
-  </si>
-  <si>
-    <t>3 - Candidature soumise</t>
-  </si>
-  <si>
-    <t>Annonce web</t>
-  </si>
-  <si>
-    <t>ServiceNow, MONTREAL</t>
-  </si>
-  <si>
-    <t>Indeed</t>
-  </si>
-  <si>
-    <t>Associate Machine Learning Engineer Intern</t>
-  </si>
-  <si>
-    <t>Machine learning, collecte de données, améliorer les capacités de langage naturel de la plate-forme ServiceNow, Données structurées (évolution de l’état du flux de travail, tables de base de données).Implémentez des interfaces Web à l’aide de frameworks JavaScript tels que React, Angular et CSS</t>
-  </si>
-  <si>
-    <t>entreprise</t>
-  </si>
-  <si>
-    <t>Professional, Engineering, Data Analytics (https://career5.successfactors.eu/portalcareer?_s.crb=dfl%252fjw9dlPgnhlh0w99L6fLD6FINEhE71DgZ938Xno4%253d)</t>
-  </si>
-  <si>
-    <t>intégration de données, des vérifications de qualités de données, documentation, identifier et gérer des problèmes liés aux données</t>
-  </si>
-  <si>
-    <t>AXA France, Nanterre</t>
-  </si>
-  <si>
-    <t>entreprise (login : EliottJanot) mdp : le plus utilisé</t>
-  </si>
-  <si>
-    <t>Data Scientist- Actuaire (F/H) - Stage</t>
-  </si>
-  <si>
-    <t>techniques de modélisation du risque en lien avec l’arrivée du Big Data, gestion de données, segmentation et optimisation de la prime commerciale, études stats (pour « agents généraux), suivre résultats techniques,  renouvellement tarifaire, pilotage portefeuilles</t>
-  </si>
-  <si>
-    <t>Origine Offre</t>
-  </si>
-  <si>
-    <t>Etapes</t>
-  </si>
-  <si>
-    <t>Offre IUT</t>
-  </si>
-  <si>
-    <t>2 - Offre validée</t>
-  </si>
-  <si>
-    <t>IUT à l'international</t>
-  </si>
-  <si>
-    <t>4 - Attente de réponse</t>
-  </si>
-  <si>
-    <t>Candidature spontanée</t>
-  </si>
-  <si>
-    <t>5 - Refus</t>
-  </si>
-  <si>
-    <t>5 - Acceptation</t>
-  </si>
-  <si>
-    <t>papernest, Paris</t>
-  </si>
-  <si>
-    <t>Data Engineer - Stage - Paris</t>
+    <t xml:space="preserve">1 - Offre identifiée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entreprise, LANNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTORO Monvoisin, esprit de la forêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exemple d'offre, à supprimer de votre carnet de bord). Développement du portail de la forêt de Lannion. Technos : wood &amp; nails, framework opensource AnimalsLivesMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection de l'environnement, spécialisation dans la magie et l'agriculture, vise la place de leader dans le marché de la transformation végétale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Candidature soumise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annonce web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow, MONTREAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Machine Learning Engineer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine learning, collecte de données, améliorer les capacités de langage naturel de la plate-forme ServiceNow, Données structurées (évolution de l’état du flux de travail, tables de base de données).Implémentez des interfaces Web à l’aide de frameworks JavaScript tels que React, Angular et CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTREAL, dorval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional, Engineering, Data Analytics (https://career5.successfactors.eu/portalcareer?_s.crb=dfl%252fjw9dlPgnhlh0w99L6fLD6FINEhE71DgZ938Xno4%253d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intégration de données, des vérifications de qualités de données, documentation, identifier et gérer des problèmes liés aux données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXA France, Nanterre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entreprise (login : EliottJanot) mdp : le plus utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scientist- Actuaire (F/H) - Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">techniques de modélisation du risque en lien avec l’arrivée du Big Data, gestion de données, segmentation et optimisation de la prime commerciale, études stats (pour « agents généraux), suivre résultats techniques,  renouvellement tarifaire, pilotage portefeuilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papernest, Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Engineer - Stage - Paris</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">optimisation pipeline de données et les mettre en forme pour une équipe d'analyse, automatisation d'acquisition de flux de données, reporting quotidiens, maintenir et faire évoluer la "stack" basée sur python et airflow, assurer le développement technique et fonctionnel des outils de Business Intelligence, anglais niveau pro, sens du contact, soif d'apprendre </t>
     </r>
     <r>
@@ -153,38 +131,85 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>(réécrire pour coller à une vision globale)</t>
+      <t xml:space="preserve">(réécrire pour coller à une vision globale)</t>
     </r>
   </si>
   <si>
-    <t>MONTREAL, dorval</t>
-  </si>
-  <si>
-    <t>Ingénieur IA et Data en stage (F/H)</t>
-  </si>
-  <si>
-    <t>Carrefour, Massy</t>
-  </si>
-  <si>
-    <t>Excel, Power BI, Google Data Studio ou Tableau requis mais aussi Python, R, Powershell ou javascript et SQL (forcer l'accent sur les languages vus) et outils d'automation comme Selenium et Postman est est un plus. stage dans les domaines Informatique, télécom, Intelligence artificielle à Massy. Carrefour est partenaire de Paris 2024, c'est parce que nous retrouvons beaucoup de nous dans les valeurs du sport. performance durable, rendre le meilleur
+    <t xml:space="preserve">2 - Offre validée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrefour, Massy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingénieur IA et Data en stage (F/H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel, Power BI, Google Data Studio ou Tableau requis mais aussi Python, R, Powershell ou javascript et SQL (forcer l'accent sur les languages vus) et outils d'automation comme Selenium et Postman est est un plus. stage dans les domaines Informatique, télécom, Intelligence artificielle à Massy. Carrefour est partenaire de Paris 2024, c'est parce que nous retrouvons beaucoup de nous dans les valeurs du sport. performance durable, rendre le meilleur
 accessible à tous , compter sur les autres pour réussir,  L'envie et le mérite,  offrant des rémunérations et des avantages parmi les meilleurs de leur secteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBDA, Le Plessis-Robinson – 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage Data Science Développement de Modèles de Data Science - IA Générative H/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine Offre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offre IUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUT à l'international</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Attente de réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidature spontanée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Refus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Acceptation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -194,7 +219,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -206,6 +231,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,125 +249,159 @@
     </fill>
   </fills>
   <borders count="7">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -400,399 +460,68 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:G106" totalsRowShown="0">
-  <autoFilter ref="A1:G106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G106" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G106"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date de l'offre"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Etape en cours_x000a_(liste déroulante)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Origine de l’offre_x000a_(liste déroulante)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Entreprise_x000a_(nom, localisation)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Contact entreprise_x000a_(nom prénom, fonction)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Intitulé du stage"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Analyse entreprise_x000a_(mots clés, valeurs, culture, projet d'entreprise)"/>
+    <tableColumn id="1" name="Date de l'offre"/>
+    <tableColumn id="2" name="Etape en cours&#10;(liste déroulante)"/>
+    <tableColumn id="3" name="Origine de l’offre&#10;(liste déroulante)"/>
+    <tableColumn id="4" name="Entreprise&#10;(nom, localisation)"/>
+    <tableColumn id="5" name="Contact entreprise&#10;(nom prénom, fonction)"/>
+    <tableColumn id="6" name="Intitulé du stage"/>
+    <tableColumn id="7" name="Analyse entreprise&#10;(mots clés, valeurs, culture, projet d'entreprise)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:A6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Origine Offre"/>
+    <tableColumn id="1" name="Origine Offre"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="C1:C7" totalsRowShown="0">
-  <autoFilter ref="C1:C7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="C1:C7" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="C1:C7"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Etapes"/>
+    <tableColumn id="1" name="Etapes"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.8984375" style="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="50.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="10.9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="true" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -815,8 +544,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" s="2" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>44805</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -838,8 +567,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" s="2" customFormat="true" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>45608</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -861,8 +590,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" s="2" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>45608</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -872,20 +601,20 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>45608</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -895,20 +624,20 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="138.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>45610</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -918,56 +647,61 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="226.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>45608</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -975,11 +709,8 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -987,11 +718,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -999,11 +727,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1011,11 +736,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1023,11 +745,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1035,11 +754,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1047,11 +763,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1059,11 +772,8 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1071,11 +781,8 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1084,7 +791,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1093,7 +800,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1102,7 +809,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1111,7 +818,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1120,7 +827,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1129,7 +836,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1138,7 +845,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1147,7 +854,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1156,7 +863,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1165,7 +872,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1174,7 +881,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1183,7 +890,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1192,7 +899,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1201,7 +908,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1210,7 +917,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1219,7 +926,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1228,7 +935,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1237,7 +944,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1246,7 +953,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1255,7 +962,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1264,7 +971,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1273,7 +980,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1282,7 +989,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1291,7 +998,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1300,7 +1007,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1309,7 +1016,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1318,7 +1025,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1327,7 +1034,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1336,7 +1043,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1345,7 +1052,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1354,7 +1061,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1363,7 +1070,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1372,7 +1079,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1381,7 +1088,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1390,7 +1097,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1399,7 +1106,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1408,7 +1115,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1417,7 +1124,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1426,7 +1133,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1435,7 +1142,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1444,7 +1151,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1453,7 +1160,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1462,7 +1169,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1471,7 +1178,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1480,7 +1187,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1489,7 +1196,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1498,7 +1205,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1507,7 +1214,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1516,7 +1223,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1525,7 +1232,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1534,7 +1241,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1543,7 +1250,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1552,7 +1259,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1561,7 +1268,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1570,7 +1277,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1579,7 +1286,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1588,7 +1295,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1597,7 +1304,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1606,7 +1313,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1615,7 +1322,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1624,7 +1331,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1633,7 +1340,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1642,7 +1349,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1651,7 +1358,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1660,7 +1367,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1669,7 +1376,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1678,7 +1385,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1687,7 +1394,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1696,7 +1403,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -1705,7 +1412,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -1714,7 +1421,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -1723,7 +1430,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -1732,7 +1439,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -1741,7 +1448,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -1750,7 +1457,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -1759,7 +1466,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1768,7 +1475,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -1777,7 +1484,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -1786,7 +1493,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -1795,7 +1502,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -1804,7 +1511,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -1813,7 +1520,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -1822,7 +1529,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -1831,7 +1538,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -1840,7 +1547,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -1849,7 +1556,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -1858,7 +1565,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -1867,7 +1574,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -1877,115 +1584,114 @@
       <c r="G106" s="8"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B106" type="list">
+      <formula1>Paramètres!$C$2:$C$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C106" type="list">
+      <formula1>Paramètres!$A$2:$A$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://career5.successfactors.eu/portalcareer?_s.crb=dfl%252fjw9dlPgnhlh0w99L6fLD6FINEhE71DgZ938Xno4%253d" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId1" display="Professional, Engineering, Data Analytics (https://career5.successfactors.eu/portalcareer?_s.crb=dfl%252fjw9dlPgnhlh0w99L6fLD6FINEhE71DgZ938Xno4%253d)"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Paramètres!$C$2:$C$7</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B2:B106</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Paramètres!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C2:C106</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCellId="1" sqref="C9:C10 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
-    <col min="3" max="3" width="60.09765625" customWidth="1"/>
-    <col min="4" max="4" width="27.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="60.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="27.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="2">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Stage/Modèle de Carnet de bord.xlsx
+++ b/Stage/Modèle de Carnet de bord.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t xml:space="preserve">Date de l'offre</t>
   </si>
@@ -156,6 +156,84 @@
     <t xml:space="preserve">Stage Data Science Développement de Modèles de Data Science - IA Générative H/F</t>
   </si>
   <si>
+    <t xml:space="preserve">Astek, Paris 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage - - Stage de Fin d'Études - Ingénieur Innovation en Informatique Sciences des Données Ref-Bia-45 Paris France H/F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">entreprise « green », big data, données médicales,graphe, traitement et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">confidentialité </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">de données. Mission d’harmonisation des données médicales. Astek est un acteur mondial de l'ingénierie et du conseil en technologie. forte culture d'entrepreneuriat et d'innovation, accompagnement et la montée en compétence de ses 10.000 collaborateurs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepki, Paris 75011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage data intégration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Web-scrapping, extraction de données d’un pdf avec les regex, transformation de donneés, ils demande d’être familier avec python, regex, de vouloir apprendre et d’être curieux, communication fluide en anglais et français. Mot d’ordre : esprit d’équipe, curiosité, passion, interet dans le software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(tests unitaires, code review, documentation)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. L’entreprise se dit écolo, veulent optimiser la donnée pour moins polluer. Ils veulent quelqu’un de spécial.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Origine Offre</t>
   </si>
   <si>
@@ -188,7 +266,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -229,6 +307,19 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -456,7 +547,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -505,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,23 +792,51 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+    <row r="9" s="2" customFormat="true" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="144.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>45577</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
@@ -1632,10 +1751,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1767,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>30</v>
@@ -1656,7 +1775,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
@@ -1667,20 +1786,20 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Stage/Modèle de Carnet de bord.xlsx
+++ b/Stage/Modèle de Carnet de bord.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date de l'offre</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Protection de l'environnement, spécialisation dans la magie et l'agriculture, vise la place de leader dans le marché de la transformation végétale</t>
   </si>
   <si>
-    <t xml:space="preserve">3 - Candidature soumise</t>
+    <t xml:space="preserve">5 - Refus</t>
   </si>
   <si>
     <t xml:space="preserve">Annonce web</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Machine learning, collecte de données, améliorer les capacités de langage naturel de la plate-forme ServiceNow, Données structurées (évolution de l’état du flux de travail, tables de base de données).Implémentez des interfaces Web à l’aide de frameworks JavaScript tels que React, Angular et CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Attente de réponse</t>
   </si>
   <si>
     <t xml:space="preserve">MONTREAL, dorval</t>
@@ -156,6 +159,9 @@
     <t xml:space="preserve">Stage Data Science Développement de Modèles de Data Science - IA Générative H/F</t>
   </si>
   <si>
+    <t xml:space="preserve">3 - Candidature soumise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Astek, Paris 75</t>
   </si>
   <si>
@@ -165,35 +171,7 @@
     <t xml:space="preserve">Stage - - Stage de Fin d'Études - Ingénieur Innovation en Informatique Sciences des Données Ref-Bia-45 Paris France H/F</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">entreprise « green », big data, données médicales,graphe, traitement et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">confidentialité </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">de données. Mission d’harmonisation des données médicales. Astek est un acteur mondial de l'ingénierie et du conseil en technologie. forte culture d'entrepreneuriat et d'innovation, accompagnement et la montée en compétence de ses 10.000 collaborateurs</t>
-    </r>
+    <t xml:space="preserve">entreprise « green », big data, données médicales,graphe, traitement et confidentialité de données. Mission d’harmonisation des données médicales. Astek est un acteur mondial de l'ingénierie et du conseil en technologie. forte culture d'entrepreneuriat et d'innovation, accompagnement et la montée en compétence de ses 10.000 collaborateurs</t>
   </si>
   <si>
     <t xml:space="preserve">Deepki, Paris 75011</t>
@@ -234,6 +212,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">entreprise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stagiaire 2Nde Opinion Tarification IARD H/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> réaliser une modélisation de la prime pure d'une garantie Auto,  comparer les résultats avec les modèles en production, tirer des conclusions permettant d'améliorer le processus global. Maitrise de Python et R demandé</t>
+  </si>
+  <si>
     <t xml:space="preserve">Origine Offre</t>
   </si>
   <si>
@@ -246,13 +233,7 @@
     <t xml:space="preserve">IUT à l'international</t>
   </si>
   <si>
-    <t xml:space="preserve">4 - Attente de réponse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Candidature spontanée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 - Refus</t>
   </si>
   <si>
     <t xml:space="preserve">5 - Acceptation</t>
@@ -266,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -310,12 +291,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -596,8 +571,8 @@
   </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="2" customFormat="true" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>45608</v>
       </c>
@@ -686,22 +661,22 @@
         <v>45608</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="104.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,39 +690,39 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="138.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>45610</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,22 +730,22 @@
         <v>45608</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,11 +759,11 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -797,22 +772,22 @@
         <v>45594</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="true" ht="144.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,32 +795,46 @@
         <v>45577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -1736,7 +1725,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1751,10 +1740,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,18 +1756,18 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,20 +1775,20 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
